--- a/protists/marine_protists/marine_protists_data.xlsx
+++ b/protists/marine_protists/marine_protists_data.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="de Vargas" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Turley, P. J. Mackie " sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Herndl" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t xml:space="preserve">Remarks</t>
   </si>
@@ -59,20 +61,49 @@
   </si>
   <si>
     <t xml:space="preserve">SPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth [m]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration of Bacteria [cells mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration of Flagellates [cells mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values taken from Table 1 in Herndl. Carbon concentrations were derived by using measured cell volumes and conversion factor described in the paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration of Monads [cells mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial carbon concentration [g C mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flagellates carbon concentration [g C mL^-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monads carbon concentration [g C mL^-1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,12 +119,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +172,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -170,15 +195,15 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.26020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,7 +232,7 @@
       <c r="A3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -221,7 +246,7 @@
       <c r="A4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -235,7 +260,7 @@
       <c r="A5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -249,7 +274,7 @@
       <c r="A6" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -263,7 +288,7 @@
       <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -277,7 +302,7 @@
       <c r="A8" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -291,7 +316,7 @@
       <c r="A9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -305,7 +330,7 @@
       <c r="A10" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -319,7 +344,7 @@
       <c r="A11" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -333,7 +358,7 @@
       <c r="A12" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -347,7 +372,7 @@
       <c r="A13" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -892,4 +917,498 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1730000000</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2540000000</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>29900000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>820000000</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>250000000</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>570000000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>2110000000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>610000000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>340000000</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>130000000</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>510000000</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>130000000</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>3780000000</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2867000000</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>3390000000</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2810000000</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>3760000000</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>55900000</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A3*1E-015</f>
+        <v>3.366857E-006</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">11.43*220*B3*1E-015</f>
+        <v>4.40055E-006</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">2.46*220*C3*1E-015</f>
+        <v>2.1648E-007</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>15200000</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>840000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A4*1E-015</f>
+        <v>9.15496E-007</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">11.43*220*B4*1E-015</f>
+        <v>3.243834E-006</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">2.46*220*C4*1E-015</f>
+        <v>4.54608E-007</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A5*1E-015</f>
+        <v>1.50575E-007</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">11.43*220*B5*1E-015</f>
+        <v>7.5438E-008</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">2.46*220*C5*1E-015</f>
+        <v>1.6236E-008</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5800000</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>180000</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A6*1E-015</f>
+        <v>3.49334E-007</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">11.43*220*B6*1E-015</f>
+        <v>4.52628E-007</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">2.46*220*C6*1E-015</f>
+        <v>2.1648E-008</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>280000</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A7*1E-015</f>
+        <v>1.174485E-006</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">11.43*220*B7*1E-015</f>
+        <v>7.04088E-007</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">2.46*220*C7*1E-015</f>
+        <v>4.3296E-008</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A8*1E-015</f>
+        <v>7.8299E-008</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">11.43*220*B8*1E-015</f>
+        <v>5.0292E-008</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">2.46*220*C8*1E-015</f>
+        <v>1.0824E-008</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>110400000</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1160000</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A9*1E-015</f>
+        <v>6.649392E-006</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">11.43*220*B9*1E-015</f>
+        <v>5.205222E-006</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">2.46*220*C9*1E-015</f>
+        <v>6.27792E-007</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A10*1E-015</f>
+        <v>1.26483E-007</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">11.43*220*B10*1E-015</f>
+        <v>7.5438E-008</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">2.46*220*C10*1E-015</f>
+        <v>1.0824E-008</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>35600000</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>520000</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">AVERAGE(0.067,0.25)*380*A11*1E-015</f>
+        <v>2.144188E-006</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">11.43*220*B11*1E-015</f>
+        <v>1.307592E-006</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">2.46*220*C11*1E-015</f>
+        <v>1.78596E-007</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/protists/marine_protists/marine_protists_data.xlsx
+++ b/protists/marine_protists/marine_protists_data.xlsx
@@ -215,7 +215,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="1"/>
+      <family val="0"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -602,9 +602,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="7.02040816326531"/>
-    <col customWidth="1" max="2" min="2" style="7" width="12.5561224489796"/>
-    <col customWidth="1" max="1025" min="3" style="7" width="11.0714285714286"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.88265306122449"/>
+    <col customWidth="1" max="2" min="2" style="7" width="12.4183673469388"/>
+    <col customWidth="1" max="1025" min="3" style="7" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">
@@ -614,8 +614,6 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -1340,7 +1338,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:6">
@@ -1370,7 +1368,6 @@
       <c r="B2" s="9" t="n">
         <v>210000000</v>
       </c>
-      <c r="C2" s="7" t="n"/>
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1468,7 +1465,6 @@
       <c r="B7" s="9" t="n">
         <v>30000000</v>
       </c>
-      <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1486,7 +1482,6 @@
       <c r="B8" s="9" t="n">
         <v>570000000</v>
       </c>
-      <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +1499,6 @@
       <c r="B9" s="9" t="n">
         <v>2110000000</v>
       </c>
-      <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1522,7 +1516,6 @@
       <c r="B10" s="9" t="n">
         <v>610000000</v>
       </c>
-      <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +1935,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
@@ -1952,7 +1945,6 @@
       <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -1961,7 +1953,6 @@
       <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="3" s="8" spans="1:3">
       <c r="A3" s="7" t="s">
@@ -2028,7 +2019,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
@@ -2038,7 +2029,6 @@
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -2105,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
@@ -2113,20 +2103,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">
+    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:4">
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -2136,9 +2124,8 @@
       <c r="C2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="8" spans="1:4">
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="8" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -2148,9 +2135,8 @@
       <c r="C3" s="7" t="n">
         <v>3.7671912517321</v>
       </c>
-      <c r="D3" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="8" spans="1:4">
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="8" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
@@ -2160,9 +2146,8 @@
       <c r="C4" s="7" t="n">
         <v>4.60377112724219</v>
       </c>
-      <c r="D4" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="5" s="8" spans="1:4">
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="8" spans="1:3">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -2172,9 +2157,8 @@
       <c r="C5" s="7" t="n">
         <v>5.75888413235764</v>
       </c>
-      <c r="D5" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="8" spans="1:4">
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="8" spans="1:3">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -2184,7 +2168,6 @@
       <c r="C6" s="7" t="n">
         <v>8.18727302094597</v>
       </c>
-      <c r="D6" s="7" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
@@ -2210,12 +2193,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I20" activeCellId="0" pane="topLeft" sqref="I20"/>
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.3418367346939"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">

--- a/protists/marine_protists/marine_protists_data.xlsx
+++ b/protists/marine_protists/marine_protists_data.xlsx
@@ -215,7 +215,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="1"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -602,9 +602,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.88265306122449"/>
-    <col customWidth="1" max="2" min="2" style="7" width="12.4183673469388"/>
-    <col customWidth="1" max="1025" min="3" style="7" width="10.8010204081633"/>
+    <col customWidth="1" max="1" min="1" style="7" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="7" width="12.2857142857143"/>
+    <col customWidth="1" max="1025" min="3" style="7" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">
@@ -614,6 +614,8 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:4">
       <c r="A2" s="7" t="s">
@@ -1338,7 +1340,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:6">
@@ -1368,6 +1370,7 @@
       <c r="B2" s="9" t="n">
         <v>210000000</v>
       </c>
+      <c r="C2" s="7" t="n"/>
       <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1465,6 +1468,7 @@
       <c r="B7" s="9" t="n">
         <v>30000000</v>
       </c>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1482,6 +1486,7 @@
       <c r="B8" s="9" t="n">
         <v>570000000</v>
       </c>
+      <c r="C8" s="7" t="n"/>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1499,6 +1504,7 @@
       <c r="B9" s="9" t="n">
         <v>2110000000</v>
       </c>
+      <c r="C9" s="7" t="n"/>
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1516,6 +1522,7 @@
       <c r="B10" s="9" t="n">
         <v>610000000</v>
       </c>
+      <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1942,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
@@ -1945,6 +1952,7 @@
       <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -1953,6 +1961,7 @@
       <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="C2" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="3" s="8" spans="1:3">
       <c r="A3" s="7" t="s">
@@ -2019,7 +2028,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
@@ -2029,6 +2038,7 @@
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="C1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -2103,7 +2113,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
@@ -2113,6 +2123,7 @@
       <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="C1" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
       <c r="A2" s="7" t="s">
@@ -2198,7 +2209,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="11.0714285714286"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">

--- a/protists/marine_protists/marine_protists_data.xlsx
+++ b/protists/marine_protists/marine_protists_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="de Vargas" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POC prokaryotes" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -182,7 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="General" numFmtId="164"/>
+    <numFmt formatCode="0.00E+00" numFmtId="165"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <name val="Arial"/>
@@ -215,7 +218,7 @@
     <font>
       <name val="Cambria"/>
       <charset val="1"/>
-      <family val="1"/>
+      <family val="0"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -255,42 +258,30 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -596,598 +587,596 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C42" activeCellId="0" pane="topLeft" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="7" width="6.75"/>
-    <col customWidth="1" max="2" min="2" style="7" width="12.2857142857143"/>
-    <col customWidth="1" max="1025" min="3" style="7" width="10.6632653061225"/>
+    <col customWidth="1" max="1" min="1" style="2" width="6.75"/>
+    <col customWidth="1" max="2" min="2" style="2" width="12.29"/>
+    <col customWidth="1" max="1025" min="3" style="2" width="10.66"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:4">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="7" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="8" spans="1:4">
-      <c r="A3" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="7" spans="1:4">
+      <c r="A3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.385416666666666</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="8" spans="1:4">
-      <c r="A4" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="7" spans="1:4">
+      <c r="A4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.411458333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="8" spans="1:4">
-      <c r="A5" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="7" spans="1:4">
+      <c r="A5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.354166666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="8" spans="1:4">
-      <c r="A6" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="6" s="7" spans="1:4">
+      <c r="A6" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.0729166666666667</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.260416666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="8" spans="1:4">
-      <c r="A7" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="7" s="7" spans="1:4">
+      <c r="A7" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.21875</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.40625</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="8" spans="1:4">
-      <c r="A8" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="8" s="7" spans="1:4">
+      <c r="A8" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.255208333333333</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="8" spans="1:4">
-      <c r="A9" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="9" s="7" spans="1:4">
+      <c r="A9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.171875</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.432291666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="8" spans="1:4">
-      <c r="A10" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="10" s="7" spans="1:4">
+      <c r="A10" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.078125</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.354166666666666</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="8" spans="1:4">
-      <c r="A11" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="11" s="7" spans="1:4">
+      <c r="A11" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.598958333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="8" spans="1:4">
-      <c r="A12" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="12" s="7" spans="1:4">
+      <c r="A12" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.1875</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="2" t="n">
         <v>0.604166666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="8" spans="1:4">
-      <c r="A13" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="13" s="7" spans="1:4">
+      <c r="A13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.203125</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="2" t="n">
         <v>0.354166666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="8" spans="1:4">
-      <c r="A14" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="14" s="7" spans="1:4">
+      <c r="A14" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="2" t="n">
         <v>0.192708333333333</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="2" t="n">
         <v>0.505208333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="8" spans="1:4">
-      <c r="A15" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="15" s="7" spans="1:4">
+      <c r="A15" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="2" t="n">
         <v>0.15625</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="8" spans="1:4">
-      <c r="A16" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="16" s="7" spans="1:4">
+      <c r="A16" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="2" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="2" t="n">
         <v>0.463541666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="8" spans="1:4">
-      <c r="A17" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="17" s="7" spans="1:4">
+      <c r="A17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="2" t="n">
         <v>0.161458333333333</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="2" t="n">
         <v>0.489583333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="8" spans="1:4">
-      <c r="A18" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="18" s="7" spans="1:4">
+      <c r="A18" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="2" t="n">
         <v>0.239583333333333</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="2" t="n">
         <v>0.390625</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="8" spans="1:4">
-      <c r="A19" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="19" s="7" spans="1:4">
+      <c r="A19" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="2" t="n">
         <v>0.182291666666667</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="2" t="n">
         <v>0.479166666666666</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="8" spans="1:4">
-      <c r="A20" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="20" s="7" spans="1:4">
+      <c r="A20" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="2" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="2" t="n">
         <v>0.473958333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="8" spans="1:4">
-      <c r="A21" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="21" s="7" spans="1:4">
+      <c r="A21" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="2" t="n">
         <v>0.234375</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="8" spans="1:4">
-      <c r="A22" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="22" s="7" spans="1:4">
+      <c r="A22" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.520833333333334</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="8" spans="1:4">
-      <c r="A23" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="23" s="7" spans="1:4">
+      <c r="A23" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="2" t="n">
         <v>0.0885416666666667</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="2" t="n">
         <v>0.401041666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="8" spans="1:4">
-      <c r="A24" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="24" s="7" spans="1:4">
+      <c r="A24" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.28125</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="2" t="n">
         <v>0.447916666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="8" spans="1:4">
-      <c r="A25" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="25" s="7" spans="1:4">
+      <c r="A25" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="2" t="n">
         <v>0.354166666666667</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="2" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="8" spans="1:4">
-      <c r="A26" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="26" s="7" spans="1:4">
+      <c r="A26" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="2" t="n">
         <v>0.302083333333333</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="2" t="n">
         <v>0.359375</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="8" spans="1:4">
-      <c r="A27" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="27" s="7" spans="1:4">
+      <c r="A27" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="2" t="n">
         <v>0.213541666666667</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="2" t="n">
         <v>0.421875</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="8" spans="1:4">
-      <c r="A28" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="28" s="7" spans="1:4">
+      <c r="A28" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="2" t="n">
         <v>0.203125</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="2" t="n">
         <v>0.552083333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="8" spans="1:4">
-      <c r="A29" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="29" s="7" spans="1:4">
+      <c r="A29" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="2" t="n">
         <v>0.234375</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="2" t="n">
         <v>0.395833333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="30" s="8" spans="1:4">
-      <c r="A30" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="30" s="7" spans="1:4">
+      <c r="A30" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="2" t="n">
         <v>0.286458333333333</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="2" t="n">
         <v>0.432291666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="31" s="8" spans="1:4">
-      <c r="A31" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="31" s="7" spans="1:4">
+      <c r="A31" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="2" t="n">
         <v>0.453125</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="2" t="n">
         <v>0.328125</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="32" s="8" spans="1:4">
-      <c r="A32" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="32" s="7" spans="1:4">
+      <c r="A32" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="2" t="n">
         <v>0.364583333333333</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="2" t="n">
         <v>0.276041666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="33" s="8" spans="1:4">
-      <c r="A33" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="33" s="7" spans="1:4">
+      <c r="A33" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="2" t="n">
         <v>0.286458333333333</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="2" t="n">
         <v>0.40625</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="34" s="8" spans="1:4">
-      <c r="A34" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="34" s="7" spans="1:4">
+      <c r="A34" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="2" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="2" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="35" s="8" spans="1:4">
-      <c r="A35" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="35" s="7" spans="1:4">
+      <c r="A35" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="2" t="n">
         <v>0.234375</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="2" t="n">
         <v>0.401041666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="36" s="8" spans="1:4">
-      <c r="A36" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="36" s="7" spans="1:4">
+      <c r="A36" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="2" t="n">
         <v>0.151041666666667</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="2" t="n">
         <v>0.546875</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="37" s="8" spans="1:4">
-      <c r="A37" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="37" s="7" spans="1:4">
+      <c r="A37" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="2" t="n">
         <v>0.15625</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="2" t="n">
         <v>0.369791666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="38" s="8" spans="1:4">
-      <c r="A38" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="38" s="7" spans="1:4">
+      <c r="A38" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="2" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="2" t="n">
         <v>0.442708333333333</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="39" s="8" spans="1:4">
-      <c r="A39" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="39" s="7" spans="1:4">
+      <c r="A39" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="2" t="n">
         <v>0.223958333333333</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="2" t="n">
         <v>0.421875</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="40" s="8" spans="1:4">
-      <c r="A40" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="40" s="7" spans="1:4">
+      <c r="A40" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="2" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="41" s="8" spans="1:4">
-      <c r="A41" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="41" s="7" spans="1:4">
+      <c r="A41" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="2" t="n">
         <v>0.15625</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="2" t="n">
         <v>0.526041666666667</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="42" s="8" spans="1:4">
-      <c r="A42" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="42" s="7" spans="1:4">
+      <c r="A42" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="2" t="n">
         <v>0.182291666666667</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="2" t="n">
         <v>0.453125</v>
       </c>
     </row>
@@ -1314,7 +1303,7 @@
   </conditionalFormatting>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1334,589 +1323,584 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="D16" activeCellId="0" pane="topLeft" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="10.8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:6">
-      <c r="A2" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="2" s="7" spans="1:6">
+      <c r="A2" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="3" t="n">
         <v>210000000</v>
       </c>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="8" spans="1:6">
-      <c r="A3" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="7" spans="1:6">
+      <c r="A3" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="3" t="n">
         <v>1730000000</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="3" t="n">
         <v>33000000</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="8" spans="1:6">
-      <c r="A4" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="7" spans="1:6">
+      <c r="A4" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="3" t="n">
         <v>2540000000</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="3" t="n">
         <v>29900000</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="8" spans="1:6">
-      <c r="A5" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="7" spans="1:6">
+      <c r="A5" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="3" t="n">
         <v>820000000</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="3" t="n">
         <v>3200000</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="8" spans="1:6">
-      <c r="A6" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="6" s="7" spans="1:6">
+      <c r="A6" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="3" t="n">
         <v>250000000</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="7" s="8" spans="1:6">
-      <c r="A7" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="7" s="7" spans="1:6">
+      <c r="A7" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="3" t="n">
         <v>30000000</v>
       </c>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="8" s="8" spans="1:6">
-      <c r="A8" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="8" s="7" spans="1:6">
+      <c r="A8" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="3" t="n">
         <v>570000000</v>
       </c>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="9" s="8" spans="1:6">
-      <c r="A9" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="9" s="7" spans="1:6">
+      <c r="A9" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="3" t="n">
         <v>2110000000</v>
       </c>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="10" s="8" spans="1:6">
-      <c r="A10" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="10" s="7" spans="1:6">
+      <c r="A10" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="3" t="n">
         <v>610000000</v>
       </c>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="11" s="8" spans="1:6">
-      <c r="A11" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="11" s="7" spans="1:6">
+      <c r="A11" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="3" t="n">
         <v>300000000</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="3" t="n">
         <v>2900000</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="12" s="8" spans="1:6">
-      <c r="A12" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="12" s="7" spans="1:6">
+      <c r="A12" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="3" t="n">
         <v>340000000</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="3" t="n">
         <v>3800000</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="13" s="8" spans="1:6">
-      <c r="A13" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="13" s="7" spans="1:6">
+      <c r="A13" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="3" t="n">
         <v>130000000</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="3" t="n">
         <v>1000000</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="14" s="8" spans="1:6">
-      <c r="A14" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="14" s="7" spans="1:6">
+      <c r="A14" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="3" t="n">
         <v>510000000</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="3" t="n">
         <v>4500000</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="15" s="8" spans="1:6">
-      <c r="A15" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="15" s="7" spans="1:6">
+      <c r="A15" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="3" t="n">
         <v>130000000</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="3" t="n">
         <v>1500000</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="16" s="8" spans="1:6">
-      <c r="A16" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="16" s="7" spans="1:6">
+      <c r="A16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="3" t="n">
         <v>3780000000</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="3" t="n">
         <v>4000000</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="17" s="8" spans="1:6">
-      <c r="A17" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="17" s="7" spans="1:6">
+      <c r="A17" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="3" t="n">
         <v>2867000000</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="3" t="n">
         <v>4300000</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="18" s="8" spans="1:6">
-      <c r="A18" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="18" s="7" spans="1:6">
+      <c r="A18" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="3" t="n">
         <v>3390000000</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="3" t="n">
         <v>2500000</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="19" s="8" spans="1:6">
-      <c r="A19" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="19" s="7" spans="1:6">
+      <c r="A19" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="3" t="n">
         <v>2810000000</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="3" t="n">
         <v>1000000</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="20" s="8" spans="1:6">
-      <c r="A20" s="7" t="n">
+    <row customHeight="1" ht="12.8" r="20" s="7" spans="1:6">
+      <c r="A20" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="3" t="n">
         <v>3760000000</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="3" t="n">
         <v>200000</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="21" s="8" spans="1:6">
-      <c r="A21" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="21" s="7" spans="1:6">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="3" t="n">
         <v>55900000</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="3" t="n">
         <v>1750000</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="22" s="8" spans="1:6">
-      <c r="A22" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="22" s="7" spans="1:6">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="3" t="n">
         <v>15200000</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="3" t="n">
         <v>1290000</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="23" s="8" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="23" s="7" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="3" t="n">
         <v>2500000</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="24" s="8" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="24" s="7" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="3" t="n">
         <v>5800000</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="3" t="n">
         <v>180000</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="25" s="8" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="25" s="7" spans="1:6">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="3" t="n">
         <v>19500000</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="3" t="n">
         <v>280000</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="26" s="8" spans="1:6">
-      <c r="A26" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="26" s="7" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="3" t="n">
         <v>1300000</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="27" s="8" spans="1:6">
-      <c r="A27" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="27" s="7" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="3" t="n">
         <v>110400000</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="3" t="n">
         <v>2070000</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="28" s="8" spans="1:6">
-      <c r="A28" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="28" s="7" spans="1:6">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="3" t="n">
         <v>2100000</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="29" s="8" spans="1:6">
-      <c r="A29" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="29" s="7" spans="1:6">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="3" t="n">
         <v>35600000</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="3" t="n">
         <v>520000</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1936,73 +1920,71 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A2" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="10.8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="7" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="3" s="8" spans="1:3">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="3" s="7" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.00554083885209713</v>
       </c>
-      <c r="C3" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="4" s="8" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="7" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.00112582781456954</v>
       </c>
-      <c r="C4" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.85" r="5" s="8" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="C4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.85" r="5" s="7" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.000794701986754967</v>
       </c>
-      <c r="C5" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="8" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="7" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.00112582781456954</v>
       </c>
-      <c r="C6" s="9" t="n"/>
+      <c r="C6" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2022,72 +2004,71 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="10.8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="7" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row customHeight="1" ht="55.5" r="3" s="8" spans="1:3">
-      <c r="A3" s="11" t="s">
+    <row customHeight="1" ht="55.5" r="3" s="7" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.95</v>
       </c>
     </row>
-    <row customHeight="1" ht="55.5" r="4" s="8" spans="1:3">
-      <c r="A4" s="11" t="s">
+    <row customHeight="1" ht="55.5" r="4" s="7" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="2" t="n">
         <v>1.29</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="5" s="8" spans="1:3">
-      <c r="A5" s="11" t="s">
+    <row customHeight="1" ht="28.5" r="5" s="7" spans="1:3">
+      <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.37</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2107,83 +2088,82 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="10.8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.8" r="2" s="8" spans="1:3">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="7" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="8" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="3" s="7" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="2" t="n">
         <v>3.7671912517321</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="4" s="8" spans="1:3">
-      <c r="A4" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="4" s="7" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="2" t="n">
         <v>4.60377112724219</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="5" s="8" spans="1:3">
-      <c r="A5" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="5" s="7" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="2" t="n">
         <v>5.75888413235764</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="6" s="8" spans="1:3">
-      <c r="A6" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="6" s="7" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="2" t="n">
         <v>8.18727302094597</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -2203,26 +2183,26 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="7" width="10.8010204081633"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="10.8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="8" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="7" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2243,7 +2223,7 @@
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
